--- a/ProjektTidsplan.xlsx
+++ b/ProjektTidsplan.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tec\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecilie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,15 +430,15 @@
   <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -476,15 +476,16 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -493,8 +494,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -503,8 +505,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -514,7 +517,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -523,8 +526,9 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -532,7 +536,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -541,8 +545,9 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -551,8 +556,9 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>

--- a/ProjektTidsplan.xlsx
+++ b/ProjektTidsplan.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecilie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,15 +430,15 @@
   <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -477,15 +477,18 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -495,8 +498,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -506,8 +510,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -517,7 +522,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -527,8 +532,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -536,7 +544,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -546,8 +554,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -557,8 +567,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
